--- a/250402_또래지명_검사_회의_후_논의_및_확인사항.xlsx
+++ b/250402_또래지명_검사_회의_후_논의_및_확인사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B1A701F-2BFD-4E75-8398-00D6F9D9BE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642E43E7-C0BF-40FC-998B-1DFEA060CF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
   </bookViews>
   <sheets>
     <sheet name="학생문항" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,212 @@
     <author>USER</author>
   </authors>
   <commentList>
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{9457C1AE-9D0E-4AE8-B9CE-B4EDECE3CB35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부유민</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PN1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관련</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>또래지명</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문항인데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞는지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문의드립니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J51" authorId="0" shapeId="0" xr:uid="{BD55654C-358A-4CBD-B5D1-16A5DABAD127}">
       <text>
         <r>
@@ -1531,6 +1737,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
+    <author>USER</author>
   </authors>
   <commentList>
     <comment ref="I21" authorId="0" shapeId="0" xr:uid="{9DCC0016-442C-B446-AED3-6D1FB2562BB5}">
@@ -3182,6 +3389,877 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M181" authorId="1" shapeId="0" xr:uid="{C4F8845E-B330-4EBF-AED3-FE8FAB7E20DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김진구</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, 1)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>또래지명</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>평정과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>학생자기보고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교사평정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두가지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종류가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구분이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되는데요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비율점수로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>산출된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표준화된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각각이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>평정과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가지는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시뮬레이션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해본</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비슷하다면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표준화된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>차이가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>많다면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비율점수로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>활용하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어떨까</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반적인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관이여서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유클리드거리로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>될</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
         </r>
       </text>
     </comment>
@@ -3411,7 +4489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="641">
   <si>
     <t>scale</t>
   </si>
@@ -5711,12 +6789,16 @@
     <t>PN1의 비율점수 (혹은 z점수)와 TR2의 본인이 평가된 점수의 유클리드거리 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>친구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5984,6 +7066,62 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="20">
@@ -6805,6 +7943,9 @@
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6836,9 +7977,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17928,8 +19066,8 @@
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2953308" cy="219227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -18146,7 +19284,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -19466,6 +20604,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -19788,8 +20930,8 @@
   </sheetPr>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -21413,8 +22555,8 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -22014,8 +23156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A2D7A-9C76-4F3A-9C65-5B376F65F2C7}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -22057,15 +23199,15 @@
       <c r="A8" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="134" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
     </row>
     <row r="9" spans="1:8" ht="33">
       <c r="A9" s="13" t="s">
@@ -22149,13 +23291,13 @@
       <c r="A13" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="131" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
@@ -22225,13 +23367,13 @@
       <c r="A18" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
     </row>
     <row r="19" spans="1:20" ht="33">
       <c r="A19" s="13" t="s">
@@ -22297,16 +23439,16 @@
       <c r="A23" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="131" t="s">
         <v>335</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
     </row>
     <row r="24" spans="1:20" ht="33">
       <c r="A24" s="13" t="s">
@@ -22400,12 +23542,12 @@
       <c r="A28" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="135" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="137"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -22421,7 +23563,7 @@
         <v>315</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>336</v>
+        <v>640</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>337</v>
@@ -22498,13 +23640,13 @@
       <c r="A33" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
     </row>
     <row r="34" spans="1:17" ht="33">
       <c r="A34" s="13" t="s">
@@ -22572,24 +23714,24 @@
       <c r="A38" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="134" t="s">
         <v>392</v>
       </c>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="133"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
     </row>
     <row r="39" spans="1:17" ht="33">
       <c r="A39" s="13" t="s">
@@ -22707,7 +23849,7 @@
       <c r="C41" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="141" t="s">
+      <c r="D41" s="130" t="s">
         <v>362</v>
       </c>
       <c r="E41" s="22" t="s">
@@ -22759,13 +23901,13 @@
       <c r="A43" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="134" t="s">
         <v>391</v>
       </c>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
     </row>
     <row r="44" spans="1:17" ht="33">
       <c r="A44" s="13" t="s">
@@ -22831,17 +23973,17 @@
       <c r="A48" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B48" s="130" t="s">
+      <c r="B48" s="131" t="s">
         <v>383</v>
       </c>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
     </row>
     <row r="49" spans="1:10" ht="33">
       <c r="A49" s="13" t="s">
@@ -22996,8 +24138,8 @@
   </sheetPr>
   <dimension ref="A1:BH245"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N186" sqref="N186"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O147" sqref="O147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -24082,7 +25224,7 @@
         <v>528</v>
       </c>
       <c r="N163" s="45"/>
-      <c r="Q163" s="138" t="s">
+      <c r="Q163" s="139" t="s">
         <v>354</v>
       </c>
       <c r="R163" s="38" t="s">
@@ -24183,7 +25325,7 @@
         <v>531</v>
       </c>
       <c r="N164" s="45"/>
-      <c r="Q164" s="138"/>
+      <c r="Q164" s="139"/>
       <c r="R164" s="38" t="s">
         <v>527</v>
       </c>
@@ -24262,7 +25404,7 @@
         <v>532</v>
       </c>
       <c r="N165" s="45"/>
-      <c r="Q165" s="137" t="s">
+      <c r="Q165" s="138" t="s">
         <v>545</v>
       </c>
       <c r="R165" s="38" t="s">
@@ -24343,7 +25485,7 @@
         <v>533</v>
       </c>
       <c r="N166" s="45"/>
-      <c r="Q166" s="138"/>
+      <c r="Q166" s="139"/>
       <c r="R166" s="38" t="s">
         <v>10</v>
       </c>
@@ -24422,7 +25564,7 @@
         <v>534</v>
       </c>
       <c r="N167" s="45"/>
-      <c r="Q167" s="138" t="s">
+      <c r="Q167" s="139" t="s">
         <v>356</v>
       </c>
       <c r="R167" s="38" t="s">
@@ -24503,7 +25645,7 @@
         <v>535</v>
       </c>
       <c r="N168" s="45"/>
-      <c r="Q168" s="138"/>
+      <c r="Q168" s="139"/>
       <c r="R168" s="38" t="s">
         <v>540</v>
       </c>
@@ -24582,7 +25724,7 @@
         <v>538</v>
       </c>
       <c r="N169" s="45"/>
-      <c r="Q169" s="138" t="s">
+      <c r="Q169" s="139" t="s">
         <v>357</v>
       </c>
       <c r="R169" s="38" t="s">
@@ -24663,7 +25805,7 @@
         <v>539</v>
       </c>
       <c r="N170" s="45"/>
-      <c r="Q170" s="138"/>
+      <c r="Q170" s="139"/>
       <c r="R170" s="38" t="s">
         <v>25</v>
       </c>
@@ -24729,7 +25871,7 @@
       </c>
     </row>
     <row r="171" spans="10:60">
-      <c r="Q171" s="137" t="s">
+      <c r="Q171" s="138" t="s">
         <v>546</v>
       </c>
       <c r="R171" s="38" t="s">
@@ -24800,7 +25942,7 @@
       <c r="J172" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="Q172" s="138"/>
+      <c r="Q172" s="139"/>
       <c r="R172" s="38" t="s">
         <v>541</v>
       </c>
@@ -24878,7 +26020,7 @@
       <c r="M173" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="Q173" s="137" t="s">
+      <c r="Q173" s="138" t="s">
         <v>547</v>
       </c>
       <c r="R173" s="38" t="s">
@@ -24958,7 +26100,7 @@
       <c r="M174" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="Q174" s="138"/>
+      <c r="Q174" s="139"/>
       <c r="R174" s="38" t="s">
         <v>542</v>
       </c>
@@ -25036,7 +26178,7 @@
       <c r="M175" s="43" t="s">
         <v>557</v>
       </c>
-      <c r="Q175" s="137" t="s">
+      <c r="Q175" s="138" t="s">
         <v>325</v>
       </c>
       <c r="R175" s="38" t="s">
@@ -25136,7 +26278,7 @@
       <c r="M176" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="Q176" s="138"/>
+      <c r="Q176" s="139"/>
       <c r="R176" s="38" t="s">
         <v>543</v>
       </c>
@@ -25214,7 +26356,7 @@
       <c r="M177" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="Q177" s="137" t="s">
+      <c r="Q177" s="138" t="s">
         <v>326</v>
       </c>
       <c r="R177" s="38" t="s">
@@ -25314,7 +26456,7 @@
       <c r="M178" s="43" t="s">
         <v>560</v>
       </c>
-      <c r="Q178" s="138"/>
+      <c r="Q178" s="139"/>
       <c r="R178" s="38" t="s">
         <v>544</v>
       </c>
@@ -25599,11 +26741,11 @@
       <c r="J193" s="88" t="s">
         <v>572</v>
       </c>
-      <c r="K193" s="139" t="s">
+      <c r="K193" s="140" t="s">
         <v>577</v>
       </c>
-      <c r="L193" s="139"/>
-      <c r="M193" s="139"/>
+      <c r="L193" s="140"/>
+      <c r="M193" s="140"/>
       <c r="N193" s="89" t="s">
         <v>436</v>
       </c>
@@ -25976,8 +27118,8 @@
   </sheetPr>
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -26053,12 +27195,12 @@
       <c r="N7" s="91"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="141" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="140"/>
+      <c r="B10" s="141"/>
     </row>
     <row r="12" spans="2:14">
       <c r="D12" s="97"/>
